--- a/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/50% solar.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/50% solar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\Indipendent Power Supply for Feed Mills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154A68A0-69F3-4405-B313-AA643CAED734}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACED4E2-7F30-4945-831F-7807E0DEB610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3230,7 +3230,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3301,7 +3301,7 @@
         <v>258</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="s">
         <v>255</v>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="C16" s="3">
         <f>C15*C3</f>
-        <v>113.27311133915053</v>
+        <v>56.636555669575266</v>
       </c>
       <c r="D16" t="s">
         <v>235</v>
@@ -3557,7 +3557,7 @@
       </c>
       <c r="C17" s="3">
         <f>-C16</f>
-        <v>-113.27311133915053</v>
+        <v>-56.636555669575266</v>
       </c>
       <c r="D17" t="s">
         <v>235</v>
@@ -3575,7 +3575,7 @@
       </c>
       <c r="C18" s="3">
         <f>C16*C8</f>
-        <v>16.07267502356002</v>
+        <v>8.03633751178001</v>
       </c>
       <c r="D18" t="s">
         <v>235</v>
@@ -3590,7 +3590,7 @@
       </c>
       <c r="C19">
         <f>C17*C9</f>
-        <v>-27.240673127325429</v>
+        <v>-13.620336563662715</v>
       </c>
       <c r="D19" t="s">
         <v>235</v>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="F2" s="3">
         <f>main!C17</f>
-        <v>-113.27311133915053</v>
+        <v>-56.636555669575266</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>288</v>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="F3" s="3">
         <f>main!C18</f>
-        <v>16.07267502356002</v>
+        <v>8.03633751178001</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>288</v>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="F4" s="3">
         <f>main!C19</f>
-        <v>-27.240673127325429</v>
+        <v>-13.620336563662715</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>288</v>
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G2" s="6">
         <f>main!C16</f>
-        <v>113.27311133915053</v>
+        <v>56.636555669575266</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>288</v>

--- a/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/50% solar.xlsx
+++ b/CIVICS_Ghana/IO_Ghana/Indipendent Power Supply for Feed Mills/50% solar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gollinucci\Documents\GitHub\CIVICS\CIVICS_Ghana\IO_Ghana\Indipendent Power Supply for Feed Mills\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACED4E2-7F30-4945-831F-7807E0DEB610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E4EE13-97D3-4C96-B036-5F07B2F1F1F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5445" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3230,7 +3230,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3287,7 +3287,7 @@
         <v>251</v>
       </c>
       <c r="C2" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>255</v>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="C10" s="9">
         <f>C2*323667.927332485/1000000</f>
-        <v>6.4733585466496999</v>
+        <v>6.1496906193172149</v>
       </c>
       <c r="D10" t="s">
         <v>227</v>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="C12" s="9">
         <f>C2*9.73/1000</f>
-        <v>0.19460000000000002</v>
+        <v>0.18487000000000001</v>
       </c>
       <c r="D12" t="s">
         <v>230</v>
@@ -3482,7 +3482,7 @@
       </c>
       <c r="C13" s="9">
         <f>50.09*C2/1000</f>
-        <v>1.0018</v>
+        <v>0.95171000000000006</v>
       </c>
       <c r="D13" t="s">
         <v>230</v>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="C14" s="9">
         <f>C2*2.504729</f>
-        <v>50.094580000000008</v>
+        <v>47.589851000000003</v>
       </c>
       <c r="D14" t="s">
         <v>230</v>
@@ -3605,7 +3605,7 @@
       </c>
       <c r="C20" s="10">
         <f>C14*C5</f>
-        <v>162.80738500000001</v>
+        <v>154.66701575000002</v>
       </c>
       <c r="D20" t="s">
         <v>235</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="C22" s="10">
         <f>C12*C5</f>
-        <v>0.63245000000000007</v>
+        <v>0.60082750000000007</v>
       </c>
       <c r="D22" t="s">
         <v>235</v>
@@ -3659,7 +3659,7 @@
       </c>
       <c r="C23" s="10">
         <f>C13*C5</f>
-        <v>3.2558500000000001</v>
+        <v>3.0930575</v>
       </c>
       <c r="D23" t="s">
         <v>235</v>
@@ -3677,7 +3677,7 @@
       </c>
       <c r="C24" s="3">
         <f>-C10*C5*C4</f>
-        <v>-6.5429471510261834</v>
+        <v>-6.2157997934748748</v>
       </c>
       <c r="D24" t="s">
         <v>235</v>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="C2" s="3">
         <f>main!C20</f>
-        <v>162.80738500000001</v>
+        <v>154.66701575000002</v>
       </c>
     </row>
   </sheetData>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="G4" s="10">
         <f>main!C22</f>
-        <v>0.63245000000000007</v>
+        <v>0.60082750000000007</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>288</v>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="G5" s="10">
         <f>main!C23</f>
-        <v>3.2558500000000001</v>
+        <v>3.0930575</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>288</v>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="G6" s="3">
         <f>main!C24</f>
-        <v>-6.5429471510261834</v>
+        <v>-6.2157997934748748</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>288</v>
